--- a/app/COVID19master/data/RL_input.xlsx
+++ b/app/COVID19master/data/RL_input.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19/Interface_model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19/Web/pre_run/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B942B64D-0C8B-864E-AF55-96B60C71AA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27572CD8-66B8-E344-8A64-1241A3125630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="4040" windowWidth="19420" windowHeight="12260" activeTab="3" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
   </bookViews>
   <sheets>
     <sheet name="VSL" sheetId="1" r:id="rId1"/>
     <sheet name="VSL_mod" sheetId="5" r:id="rId2"/>
     <sheet name="actual_unemploy" sheetId="2" r:id="rId3"/>
-    <sheet name="duration_unemploy" sheetId="9" r:id="rId4"/>
-    <sheet name="unemploy_cof" sheetId="6" r:id="rId5"/>
-    <sheet name="labor_for" sheetId="4" r:id="rId6"/>
-    <sheet name="others" sheetId="7" r:id="rId7"/>
-    <sheet name="Source" sheetId="10" r:id="rId8"/>
+    <sheet name="actual_unemploy_mod" sheetId="11" r:id="rId4"/>
+    <sheet name="duration_unemploy" sheetId="9" r:id="rId5"/>
+    <sheet name="duration_unemploy_mod" sheetId="13" r:id="rId6"/>
+    <sheet name="unemploy_cof" sheetId="6" r:id="rId7"/>
+    <sheet name="unemploy_cof_mod" sheetId="12" r:id="rId8"/>
+    <sheet name="labor_for" sheetId="4" r:id="rId9"/>
+    <sheet name="others" sheetId="7" r:id="rId10"/>
+    <sheet name="Source" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="96">
   <si>
     <t>0</t>
   </si>
@@ -73,9 +76,6 @@
   </si>
   <si>
     <t>DistrictofColumbia</t>
-  </si>
-  <si>
-    <t>coefficient</t>
   </si>
   <si>
     <t>lower_age</t>
@@ -237,25 +237,10 @@
     <t>WY</t>
   </si>
   <si>
-    <t>FA</t>
-  </si>
-  <si>
     <t>NX</t>
   </si>
   <si>
     <t>RI</t>
-  </si>
-  <si>
-    <t>med_sal</t>
-  </si>
-  <si>
-    <t>cost_symptom_test</t>
-  </si>
-  <si>
-    <t>cost_contact</t>
-  </si>
-  <si>
-    <t>cost_universal</t>
   </si>
   <si>
     <t>Date</t>
@@ -324,12 +309,36 @@
     <t xml:space="preserve">"COVID-19 estimate downloads." Institute for Health Metrics and Evaluation, http://www.healthdata.org/covid/data-downloads
  </t>
   </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Labor force participate rate</t>
+  </si>
+  <si>
+    <t>median daily salary</t>
+  </si>
+  <si>
+    <t>unit cost of symptomatic based testing</t>
+  </si>
+  <si>
+    <t>unit cost of contact tracing</t>
+  </si>
+  <si>
+    <t>unit cost of universal testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,6 +366,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -389,6 +406,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,13 +737,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,6 +847,128 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355BA315-07C5-1346-8104-7B239232D5F2}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>105.8</v>
+      </c>
+      <c r="B2">
+        <v>43.61</v>
+      </c>
+      <c r="C2">
+        <v>43.61</v>
+      </c>
+      <c r="D2">
+        <v>43.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96071F37-3BD4-F747-9362-8F98144F29F6}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -832,18 +977,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAA7260-4112-4A9A-AF13-FA7948AFBE54}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1103,7 +1248,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1111,7 +1256,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1119,7 +1264,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1127,7 +1272,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1135,7 +1280,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1143,7 +1288,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1151,7 +1296,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1159,7 +1304,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1167,7 +1312,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1175,73 +1320,55 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>13.8</v>
       </c>
-      <c r="D42">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>13.8</v>
       </c>
-      <c r="D43">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>13.8</v>
       </c>
-      <c r="D44">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>13.8</v>
       </c>
-      <c r="D45">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>13.8</v>
       </c>
-      <c r="D46">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>13.8</v>
       </c>
-      <c r="D47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1691,170 +1818,170 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>52</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>53</v>
       </c>
       <c r="AN1" t="s">
         <v>9</v>
       </c>
       <c r="AO1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>55</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>56</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>57</v>
       </c>
       <c r="AT1" t="s">
         <v>10</v>
       </c>
       <c r="AU1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV1" t="s">
         <v>58</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>59</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>60</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>61</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>62</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>63</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
@@ -4281,153 +4408,153 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8A6DB2-47D9-364B-886F-A684F3E3E595}">
-  <dimension ref="A1:BA7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D6D6EF-5945-D14C-97F6-D84B44F1D4A2}">
+  <dimension ref="A1:BB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>55</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>57</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>10</v>
       </c>
       <c r="AU1" t="s">
         <v>58</v>
@@ -4436,389 +4563,3310 @@
         <v>59</v>
       </c>
       <c r="AW1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX1" t="s">
         <v>60</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>61</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>62</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>63</v>
       </c>
-      <c r="BA1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2">
+      <c r="BB1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20200104</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3.32</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2.81</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="N2" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="P2" s="7">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="R2" s="7">
+        <v>1.19</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="U2" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="V2" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="W2" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="X2" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>2.39</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>2.44</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>1.53</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>2.78</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>1.94</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>1.38</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>2.57</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1.41</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>2.37</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>1.74</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="BB2" s="7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20200111</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3.03</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2.87</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1.58</v>
+      </c>
+      <c r="N3" s="7">
+        <v>2.31</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="P3" s="7">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="U3" s="8">
+        <v>1.23</v>
+      </c>
+      <c r="V3" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="W3" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="X3" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>2.59</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>1.47</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>1.89</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>2.11</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>2.69</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="BB3" s="7">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20200118</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2.57</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1.64</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1.94</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V4" s="7">
+        <v>2.11</v>
+      </c>
+      <c r="W4" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="X4" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>1.41</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>1.65</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>1.36</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>1.66</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>2.62</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>1.19</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>1.63</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>1.64</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>1.98</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>2.64</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>1.57</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="BB4" s="7">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20200125</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3.09</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.95</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2.52</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.63</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1.98</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V5" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="W5" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="X5" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>1.39</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>1.69</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>2.41</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>1.64</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>1.61</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AY5" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="BB5" s="7">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20200201</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2.52</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.54</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="P6" s="7">
+        <v>2.02</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="T6" s="7">
+        <v>1.48</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="V6" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="W6" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>2.54</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>2.74</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>1.77</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>1.65</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>1.36</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>1.51</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>1.96</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>2.52</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="BA6" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="BB6" s="7">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20200208</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.98</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2.08</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2.52</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2.21</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="P7" s="7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="7">
+        <v>1.46</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V7" s="7">
+        <v>2.15</v>
+      </c>
+      <c r="W7" s="7">
+        <v>1.86</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>2.74</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>1.74</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>1.66</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>1.34</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>1.66</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>2.72</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>1.59</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>1.52</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>1.31</v>
+      </c>
+      <c r="BB7" s="7">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20200215</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.04</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2.38</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="P8" s="7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="T8" s="7">
+        <v>1.48</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V8" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="W8" s="7">
+        <v>1.84</v>
+      </c>
+      <c r="X8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>2.74</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>1.63</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>2.35</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>2.36</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>1.62</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>1.48</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>2.52</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>1.38</v>
+      </c>
+      <c r="BB8" s="7">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20200222</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.88</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2.02</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2.52</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.34</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="P9" s="7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="V9" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="W9" s="7">
+        <v>1.81</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1.42</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>2.72</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>1.74</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>1.67</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>2.44</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>2.37</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>1.61</v>
+      </c>
+      <c r="AV9" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AW9" s="7">
+        <v>1.48</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="AY9" s="7">
+        <v>2.59</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>1.54</v>
+      </c>
+      <c r="BA9" s="7">
+        <v>1.34</v>
+      </c>
+      <c r="BB9" s="7">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20200229</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.91</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2.14</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.52</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1.99</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="T10" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V10" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="W10" s="7">
+        <v>1.83</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>1.46</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>2.76</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>1.95</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>1.65</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>1.32</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>1.58</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>2.33</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>2.29</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>2.62</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>1.66</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AW10" s="7">
+        <v>1.64</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>1.76</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AZ10" s="7">
+        <v>1.53</v>
+      </c>
+      <c r="BA10" s="7">
+        <v>1.32</v>
+      </c>
+      <c r="BB10" s="7">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20200307</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.69</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2.46</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2.31</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="R11" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="U11" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V11" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="W11" s="7">
+        <v>1.81</v>
+      </c>
+      <c r="X11" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>2.37</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>1.59</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>1.37</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>2.36</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>2.35</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="AU11" s="7">
+        <v>1.72</v>
+      </c>
+      <c r="AV11" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="AW11" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="AX11" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="AY11" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>1.48</v>
+      </c>
+      <c r="BA11" s="7">
+        <v>1.31</v>
+      </c>
+      <c r="BB11" s="7">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20200314</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.77</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2.04</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1.82</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="T12" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="V12" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="W12" s="7">
+        <v>1.76</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>2.23</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>1.42</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>1.69</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>1.54</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>1.52</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="AT12" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>1.61</v>
+      </c>
+      <c r="AV12" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AW12" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="AX12" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="AY12" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="BA12" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="BB12" s="7">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20200321</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.77</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2.44</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.19</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1.18</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="U13" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="V13" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="W13" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>2.64</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>1.78</v>
+      </c>
+      <c r="AH13" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>2.21</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="AR13" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AS13" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="AT13" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="AU13" s="7">
+        <v>1.58</v>
+      </c>
+      <c r="AV13" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW13" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="AX13" s="7">
+        <v>1.88</v>
+      </c>
+      <c r="AY13" s="7">
+        <v>2.11</v>
+      </c>
+      <c r="AZ13" s="7">
+        <v>1.53</v>
+      </c>
+      <c r="BA13" s="7">
+        <v>1.19</v>
+      </c>
+      <c r="BB13" s="7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20200328</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.64</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1.77</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2.13</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2.23</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="P14" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="S14" s="8">
+        <v>3.07</v>
+      </c>
+      <c r="T14" s="7">
+        <v>3.64</v>
+      </c>
+      <c r="U14" s="8">
+        <v>1.88</v>
+      </c>
+      <c r="V14" s="7">
+        <v>5.15</v>
+      </c>
+      <c r="W14" s="7">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="X14" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>5.63</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>4.29</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>4.17</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>3.89</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>3.35</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>1.72</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AJ14" s="7">
+        <v>4.01</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>1.61</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>3.35</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>6.73</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>1.46</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="AR14" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>1.18</v>
+      </c>
+      <c r="AT14" s="7">
+        <v>1.69</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>4.55</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AW14" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AX14" s="7">
+        <v>4.74</v>
+      </c>
+      <c r="AY14" s="7">
+        <v>3.16</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>3.49</v>
+      </c>
+      <c r="BA14" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="BB14" s="7">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20200404</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6.46</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3.05</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6.24</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2.78</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8.94</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K15" s="7">
+        <v>8.23</v>
+      </c>
+      <c r="L15" s="7">
+        <v>5.18</v>
+      </c>
+      <c r="M15" s="7">
+        <v>4.93</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4.45</v>
+      </c>
+      <c r="O15" s="7">
+        <v>2.36</v>
+      </c>
+      <c r="P15" s="7">
+        <v>5.99</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>3.77</v>
+      </c>
+      <c r="R15" s="7">
+        <v>6.88</v>
+      </c>
+      <c r="S15" s="8">
+        <v>6.17</v>
+      </c>
+      <c r="T15" s="7">
+        <v>6.86</v>
+      </c>
+      <c r="U15" s="8">
+        <v>3.61</v>
+      </c>
+      <c r="V15" s="7">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="W15" s="7">
+        <v>8.52</v>
+      </c>
+      <c r="X15" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>8.67</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>2.65</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>4.04</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>9.56</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>7.97</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>6.88</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>5.61</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>5.61</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>8.43</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>6.23</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>9.77</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>5.83</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>11.85</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>3.64</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>1.81</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>3.56</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>3.06</v>
+      </c>
+      <c r="AT15" s="7">
+        <v>3.09</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>7.23</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>3.57</v>
+      </c>
+      <c r="AW15" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="AX15" s="7">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="AY15" s="7">
+        <v>5.48</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>7.31</v>
+      </c>
+      <c r="BA15" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="BB15" s="7">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>20200411</v>
       </c>
-      <c r="C2">
-        <v>20200411</v>
-      </c>
-      <c r="D2">
-        <v>20200411</v>
-      </c>
-      <c r="E2">
-        <v>20200411</v>
-      </c>
-      <c r="F2">
-        <v>20200411</v>
-      </c>
-      <c r="G2">
-        <v>20200411</v>
-      </c>
-      <c r="H2">
-        <v>20200411</v>
-      </c>
-      <c r="I2">
-        <v>20200411</v>
-      </c>
-      <c r="J2">
-        <v>20200411</v>
-      </c>
-      <c r="K2">
-        <v>20200411</v>
-      </c>
-      <c r="L2">
-        <v>20200411</v>
-      </c>
-      <c r="M2">
-        <v>20200411</v>
-      </c>
-      <c r="N2">
-        <v>20200411</v>
-      </c>
-      <c r="O2">
-        <v>20200411</v>
-      </c>
-      <c r="P2">
-        <v>20200411</v>
-      </c>
-      <c r="Q2">
-        <v>20200411</v>
-      </c>
-      <c r="R2">
-        <v>20200411</v>
-      </c>
-      <c r="S2">
-        <v>20200411</v>
-      </c>
-      <c r="T2">
-        <v>20200411</v>
-      </c>
-      <c r="U2">
-        <v>20200411</v>
-      </c>
-      <c r="V2">
-        <v>20200411</v>
-      </c>
-      <c r="W2">
-        <v>20200411</v>
-      </c>
-      <c r="X2">
-        <v>20200411</v>
-      </c>
-      <c r="Y2">
-        <v>20200411</v>
-      </c>
-      <c r="Z2">
-        <v>20200411</v>
-      </c>
-      <c r="AA2">
-        <v>20200411</v>
-      </c>
-      <c r="AB2">
-        <v>20200411</v>
-      </c>
-      <c r="AC2">
-        <v>20200411</v>
-      </c>
-      <c r="AD2">
-        <v>20200411</v>
-      </c>
-      <c r="AE2">
-        <v>20200411</v>
-      </c>
-      <c r="AF2">
-        <v>20200411</v>
-      </c>
-      <c r="AG2">
-        <v>20200411</v>
-      </c>
-      <c r="AH2">
-        <v>20200411</v>
-      </c>
-      <c r="AI2">
-        <v>20200411</v>
-      </c>
-      <c r="AJ2">
-        <v>20200411</v>
-      </c>
-      <c r="AK2">
-        <v>20200411</v>
-      </c>
-      <c r="AL2">
-        <v>20200411</v>
-      </c>
-      <c r="AM2">
-        <v>20200411</v>
-      </c>
-      <c r="AN2">
-        <v>20200411</v>
-      </c>
-      <c r="AO2">
-        <v>20200411</v>
-      </c>
-      <c r="AP2">
-        <v>20200411</v>
-      </c>
-      <c r="AQ2">
-        <v>20200411</v>
-      </c>
-      <c r="AR2">
-        <v>20200411</v>
-      </c>
-      <c r="AS2">
-        <v>20200411</v>
-      </c>
-      <c r="AT2">
-        <v>20200411</v>
-      </c>
-      <c r="AU2">
-        <v>20200411</v>
-      </c>
-      <c r="AV2">
-        <v>20200411</v>
-      </c>
-      <c r="AW2">
-        <v>20200411</v>
-      </c>
-      <c r="AX2">
-        <v>20200411</v>
-      </c>
-      <c r="AY2">
-        <v>20200411</v>
-      </c>
-      <c r="AZ2">
-        <v>20200411</v>
-      </c>
-      <c r="BA2">
-        <v>20200411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <v>20200405</v>
-      </c>
-      <c r="C3">
-        <v>20200329</v>
-      </c>
-      <c r="D3">
-        <v>20200401</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3">
-        <v>20200319</v>
-      </c>
-      <c r="G3">
-        <v>20200326</v>
-      </c>
-      <c r="H3">
-        <v>20200324</v>
-      </c>
-      <c r="I3">
-        <v>20200401</v>
-      </c>
-      <c r="J3">
-        <v>20200403</v>
-      </c>
-      <c r="K3">
-        <v>20200404</v>
-      </c>
-      <c r="L3">
-        <v>20200325</v>
-      </c>
-      <c r="M3">
-        <v>20200325</v>
-      </c>
-      <c r="N3">
-        <v>20200322</v>
-      </c>
-      <c r="O3">
-        <v>20200325</v>
-      </c>
-      <c r="P3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q3">
-        <v>20200330</v>
-      </c>
-      <c r="R3">
-        <v>20200327</v>
-      </c>
-      <c r="S3">
-        <v>20200324</v>
-      </c>
-      <c r="T3">
-        <v>20200402</v>
-      </c>
-      <c r="U3">
-        <v>20200331</v>
-      </c>
-      <c r="V3">
-        <v>20200324</v>
-      </c>
-      <c r="W3">
-        <v>20200324</v>
-      </c>
-      <c r="X3">
-        <v>20200328</v>
-      </c>
-      <c r="Y3">
-        <v>20200404</v>
-      </c>
-      <c r="Z3">
-        <v>20200406</v>
-      </c>
-      <c r="AA3">
-        <v>20200328</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3">
-        <v>20200401</v>
-      </c>
-      <c r="AD3">
-        <v>20200328</v>
-      </c>
-      <c r="AE3">
-        <v>20200322</v>
-      </c>
-      <c r="AF3">
-        <v>20200323</v>
-      </c>
-      <c r="AG3">
-        <v>20200322</v>
-      </c>
-      <c r="AH3">
-        <v>20200331</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3">
-        <v>20200324</v>
-      </c>
-      <c r="AK3">
-        <v>20200324</v>
-      </c>
-      <c r="AL3">
-        <v>20200323</v>
-      </c>
-      <c r="AM3">
-        <v>20200402</v>
-      </c>
-      <c r="AN3">
-        <v>20200315</v>
-      </c>
-      <c r="AO3">
-        <v>20200328</v>
-      </c>
-      <c r="AP3">
-        <v>20200408</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR3">
-        <v>20200401</v>
-      </c>
-      <c r="AS3">
-        <v>20200402</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV3">
-        <v>20200326</v>
-      </c>
-      <c r="AW3">
-        <v>20200330</v>
-      </c>
-      <c r="AX3">
-        <v>20200323</v>
-      </c>
-      <c r="AY3">
-        <v>20200325</v>
-      </c>
-      <c r="AZ3">
-        <v>20200325</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
+      <c r="B16" s="7">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11.48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5.56</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.21</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11.44</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6.64</v>
+      </c>
+      <c r="J16" s="7">
+        <v>3.95</v>
+      </c>
+      <c r="K16" s="7">
+        <v>13.57</v>
+      </c>
+      <c r="L16" s="7">
+        <v>7.77</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8.06</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7.66</v>
+      </c>
+      <c r="O16" s="7">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="P16" s="7">
+        <v>8.31</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>5.74</v>
+      </c>
+      <c r="R16" s="7">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="S16" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="T16" s="7">
+        <v>9.23</v>
+      </c>
+      <c r="U16" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="V16" s="7">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="W16" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="X16" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>11.93</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>5.47</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>11.73</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>6.26</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>12.31</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>10.67</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>7.81</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>11.92</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>8.24</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>5.95</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>11.65</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>5.63</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>10.56</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>14.98</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>6.08</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>3.45</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>5.14</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>10.29</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>6.35</v>
+      </c>
+      <c r="AW16" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="AX16" s="7">
+        <v>13.22</v>
+      </c>
+      <c r="AY16" s="7">
+        <v>7.28</v>
+      </c>
+      <c r="AZ16" s="7">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="BA16" s="7">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="BB16" s="7">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20200418</v>
+      </c>
+      <c r="B17" s="7">
+        <v>7.48</v>
+      </c>
+      <c r="C17" s="7">
+        <v>15.61</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7.63</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="F17" s="7">
+        <v>13.98</v>
+      </c>
+      <c r="G17" s="7">
+        <v>6.43</v>
+      </c>
+      <c r="H17" s="7">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="I17" s="7">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="K17" s="7">
+        <v>13.94</v>
+      </c>
+      <c r="L17" s="7">
+        <v>11.63</v>
+      </c>
+      <c r="M17" s="7">
+        <v>9.23</v>
+      </c>
+      <c r="N17" s="7">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="O17" s="7">
+        <v>6.78</v>
+      </c>
+      <c r="P17" s="7">
+        <v>9.82</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>7.14</v>
+      </c>
+      <c r="R17" s="7">
+        <v>10.51</v>
+      </c>
+      <c r="S17" s="8">
+        <v>13.02</v>
+      </c>
+      <c r="T17" s="7">
+        <v>11.02</v>
+      </c>
+      <c r="U17" s="8">
+        <v>7.88</v>
+      </c>
+      <c r="V17" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="W17" s="7">
+        <v>21.77</v>
+      </c>
+      <c r="X17" s="7">
+        <v>8.14</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>13.66</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>14.27</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>7.47</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>16.79</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>14.43</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>13.81</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>10.09</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>10.64</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>13.43</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>7.16</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>11.34</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>18.48</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>12.81</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>16.71</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>8.61</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>7.41</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>5.99</v>
+      </c>
+      <c r="AU17" s="7">
+        <v>21.2</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>7.97</v>
+      </c>
+      <c r="AW17" s="7">
+        <v>3.73</v>
+      </c>
+      <c r="AX17" s="7">
+        <v>15.97</v>
+      </c>
+      <c r="AY17" s="7">
+        <v>14.39</v>
+      </c>
+      <c r="AZ17" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="BA17" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="BB17" s="7">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20200425</v>
+      </c>
+      <c r="B18" s="7">
+        <v>9.01</v>
+      </c>
+      <c r="C18" s="7">
+        <v>16.88</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9.14</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6.81</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10.89</v>
+      </c>
+      <c r="G18" s="7">
+        <v>8.58</v>
+      </c>
+      <c r="H18" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10.09</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6.29</v>
+      </c>
+      <c r="K18" s="7">
+        <v>17.29</v>
+      </c>
+      <c r="L18" s="7">
+        <v>11.04</v>
+      </c>
+      <c r="M18" s="7">
+        <v>9.74</v>
+      </c>
+      <c r="N18" s="7">
+        <v>11.51</v>
+      </c>
+      <c r="O18" s="7">
+        <v>8.35</v>
+      </c>
+      <c r="P18" s="7">
+        <v>11.03</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="R18" s="7">
+        <v>13.77</v>
+      </c>
+      <c r="S18" s="8">
+        <v>15.9</v>
+      </c>
+      <c r="T18" s="7">
+        <v>12.11</v>
+      </c>
+      <c r="U18" s="8">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="V18" s="7">
+        <v>14.92</v>
+      </c>
+      <c r="W18" s="7">
+        <v>21.71</v>
+      </c>
+      <c r="X18" s="7">
+        <v>9.15</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>14.56</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>12.23</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>7.94</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>15.44</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>11.72</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>17.18</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>12.61</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>14.54</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>8.58</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>14.86</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>15.74</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>20.41</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>11.55</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>5.43</v>
+      </c>
+      <c r="AR18" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AS18" s="7">
+        <v>7.82</v>
+      </c>
+      <c r="AT18" s="7">
+        <v>6.07</v>
+      </c>
+      <c r="AU18" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="AV18" s="7">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="AW18" s="7">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AX18" s="7">
+        <v>17.11</v>
+      </c>
+      <c r="AY18" s="7">
+        <v>21.95</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>11.25</v>
+      </c>
+      <c r="BA18" s="7">
+        <v>6.14</v>
+      </c>
+      <c r="BB18" s="7">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20200502</v>
+      </c>
+      <c r="B19" s="7">
+        <v>11.12</v>
+      </c>
+      <c r="C19" s="7">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="D19" s="7">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="E19" s="7">
+        <v>7.58</v>
+      </c>
+      <c r="F19" s="7">
+        <v>27.75</v>
+      </c>
+      <c r="G19" s="7">
+        <v>8.58</v>
+      </c>
+      <c r="H19" s="7">
+        <v>18</v>
+      </c>
+      <c r="I19" s="7">
+        <v>11.78</v>
+      </c>
+      <c r="J19" s="7">
+        <v>5.17</v>
+      </c>
+      <c r="K19" s="7">
+        <v>20.18</v>
+      </c>
+      <c r="L19" s="7">
+        <v>14.18</v>
+      </c>
+      <c r="M19" s="7">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="N19" s="7">
+        <v>11.77</v>
+      </c>
+      <c r="O19" s="7">
+        <v>8.92</v>
+      </c>
+      <c r="P19" s="7">
+        <v>11.73</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>8.84</v>
+      </c>
+      <c r="R19" s="7">
+        <v>13.54</v>
+      </c>
+      <c r="S19" s="8">
+        <v>16.39</v>
+      </c>
+      <c r="T19" s="7">
+        <v>12.71</v>
+      </c>
+      <c r="U19" s="8">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="V19" s="7">
+        <v>15.97</v>
+      </c>
+      <c r="W19" s="7">
+        <v>23.14</v>
+      </c>
+      <c r="X19" s="7">
+        <v>8.83</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>14.67</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>13.85</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>7.13</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>22</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>17.79</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>15.96</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>11.98</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>13.42</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>8.68</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>9.86</v>
+      </c>
+      <c r="AL19" s="7">
+        <v>16.14</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>21.21</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>16.95</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>20.6</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>12.48</v>
+      </c>
+      <c r="AQ19" s="7">
+        <v>5.69</v>
+      </c>
+      <c r="AR19" s="7">
+        <v>10.38</v>
+      </c>
+      <c r="AS19" s="7">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="AT19" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="AU19" s="7">
+        <v>19.95</v>
+      </c>
+      <c r="AV19" s="7">
+        <v>10.07</v>
+      </c>
+      <c r="AW19" s="7">
+        <v>5.31</v>
+      </c>
+      <c r="AX19" s="7">
+        <v>18.03</v>
+      </c>
+      <c r="AY19" s="7">
+        <v>16.53</v>
+      </c>
+      <c r="AZ19" s="7">
+        <v>11</v>
+      </c>
+      <c r="BA19" s="7">
+        <v>6.49</v>
+      </c>
+      <c r="BB19" s="7">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20200509</v>
+      </c>
+      <c r="B20" s="7">
+        <v>11.24</v>
+      </c>
+      <c r="C20" s="7">
+        <v>16.54</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10.24</v>
+      </c>
+      <c r="E20" s="7">
+        <v>7.93</v>
+      </c>
+      <c r="F20" s="7">
+        <v>16.45</v>
+      </c>
+      <c r="G20" s="7">
+        <v>9.82</v>
+      </c>
+      <c r="H20" s="7">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="I20" s="7">
+        <v>11.26</v>
+      </c>
+      <c r="J20" s="7">
+        <v>12.05</v>
+      </c>
+      <c r="K20" s="7">
+        <v>18.52</v>
+      </c>
+      <c r="L20" s="7">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="M20" s="7">
+        <v>8.93</v>
+      </c>
+      <c r="N20" s="7">
+        <v>12.78</v>
+      </c>
+      <c r="O20" s="7">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="P20" s="7">
+        <v>12.38</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>8.64</v>
+      </c>
+      <c r="R20" s="7">
+        <v>13.38</v>
+      </c>
+      <c r="S20" s="8">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="T20" s="7">
+        <v>14.45</v>
+      </c>
+      <c r="U20" s="8">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="V20" s="7">
+        <v>16.13</v>
+      </c>
+      <c r="W20" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="X20" s="7">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>14.98</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>18.77</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>12.92</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>7.05</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>23.52</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>17.97</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>17.77</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>12.59</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>19.62</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>14.08</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>13.95</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>11.35</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>18.05</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>19.16</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>19.87</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>12.87</v>
+      </c>
+      <c r="AQ20" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="AR20" s="7">
+        <v>10.47</v>
+      </c>
+      <c r="AS20" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="AT20" s="7">
+        <v>6.21</v>
+      </c>
+      <c r="AU20" s="7">
+        <v>18.8</v>
+      </c>
+      <c r="AV20" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AW20" s="7">
+        <v>7.94</v>
+      </c>
+      <c r="AX20" s="7">
+        <v>22.08</v>
+      </c>
+      <c r="AY20" s="7">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="AZ20" s="7">
+        <v>10.98</v>
+      </c>
+      <c r="BA20" s="7">
+        <v>6.64</v>
+      </c>
+      <c r="BB20" s="7">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20200516</v>
+      </c>
+      <c r="B21" s="7">
+        <v>10.55</v>
+      </c>
+      <c r="C21" s="7">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="D21" s="7">
+        <v>10.23</v>
+      </c>
+      <c r="E21" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="F21" s="7">
+        <v>20.57</v>
+      </c>
+      <c r="G21" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="H21" s="7">
+        <v>17.97</v>
+      </c>
+      <c r="I21" s="7">
+        <v>11.44</v>
+      </c>
+      <c r="J21" s="7">
+        <v>25.04</v>
+      </c>
+      <c r="K21" s="7">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="L21" s="7">
+        <v>23.42</v>
+      </c>
+      <c r="M21" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N21" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="O21" s="7">
+        <v>8.89</v>
+      </c>
+      <c r="P21" s="7">
+        <v>12.06</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>7.95</v>
+      </c>
+      <c r="R21" s="7">
+        <v>13.04</v>
+      </c>
+      <c r="S21" s="8">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="T21" s="7">
+        <v>15.27</v>
+      </c>
+      <c r="U21" s="8">
+        <v>9.91</v>
+      </c>
+      <c r="V21" s="7">
+        <v>16.52</v>
+      </c>
+      <c r="W21" s="7">
+        <v>23.09</v>
+      </c>
+      <c r="X21" s="7">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>14.93</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>17.11</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>6.53</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>26.75</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>17.61</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>14.95</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>12.95</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>13.76</v>
+      </c>
+      <c r="AI21" s="8">
+        <v>7.85</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>13.18</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>15.16</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="AN21" s="7">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>18.84</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>6.03</v>
+      </c>
+      <c r="AR21" s="7">
+        <v>10.15</v>
+      </c>
+      <c r="AS21" s="7">
+        <v>10.57</v>
+      </c>
+      <c r="AT21" s="7">
+        <v>5.85</v>
+      </c>
+      <c r="AU21" s="7">
+        <v>18.16</v>
+      </c>
+      <c r="AV21" s="7">
+        <v>10.79</v>
+      </c>
+      <c r="AW21" s="7">
+        <v>10.08</v>
+      </c>
+      <c r="AX21" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="AY21" s="7">
+        <v>14.79</v>
+      </c>
+      <c r="AZ21" s="7">
+        <v>10.81</v>
+      </c>
+      <c r="BA21" s="7">
+        <v>6.42</v>
+      </c>
+      <c r="BB21" s="7">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AN23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="BA23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4826,8 +7874,1255 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8A6DB2-47D9-364B-886F-A684F3E3E595}">
+  <dimension ref="A1:AY53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>20200411</v>
+      </c>
+      <c r="C2">
+        <v>20200405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>20200411</v>
+      </c>
+      <c r="C3">
+        <v>20200329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>20200411</v>
+      </c>
+      <c r="C4">
+        <v>20200401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>20200411</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>20200411</v>
+      </c>
+      <c r="C6">
+        <v>20200319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>20200411</v>
+      </c>
+      <c r="C7">
+        <v>20200326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>20200411</v>
+      </c>
+      <c r="C8">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>20200411</v>
+      </c>
+      <c r="C9">
+        <v>20200401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>20200411</v>
+      </c>
+      <c r="C10">
+        <v>20200403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>20200411</v>
+      </c>
+      <c r="C11">
+        <v>20200404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>20200411</v>
+      </c>
+      <c r="C12">
+        <v>20200325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>20200411</v>
+      </c>
+      <c r="C13">
+        <v>20200325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>20200411</v>
+      </c>
+      <c r="C14">
+        <v>20200322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>20200411</v>
+      </c>
+      <c r="C15">
+        <v>20200325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>20200411</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>20200411</v>
+      </c>
+      <c r="C17">
+        <v>20200330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>20200411</v>
+      </c>
+      <c r="C18">
+        <v>20200327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>20200411</v>
+      </c>
+      <c r="C19">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>20200411</v>
+      </c>
+      <c r="C20">
+        <v>20200402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>20200411</v>
+      </c>
+      <c r="C21">
+        <v>20200331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>20200411</v>
+      </c>
+      <c r="C22">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>20200411</v>
+      </c>
+      <c r="C23">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>20200411</v>
+      </c>
+      <c r="C24">
+        <v>20200328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>20200411</v>
+      </c>
+      <c r="C25">
+        <v>20200404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>20200411</v>
+      </c>
+      <c r="C26">
+        <v>20200406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>20200411</v>
+      </c>
+      <c r="C27">
+        <v>20200328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>20200411</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>20200411</v>
+      </c>
+      <c r="C29">
+        <v>20200401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>20200411</v>
+      </c>
+      <c r="C30">
+        <v>20200328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>20200411</v>
+      </c>
+      <c r="C31">
+        <v>20200322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>20200411</v>
+      </c>
+      <c r="C32">
+        <v>20200323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>20200411</v>
+      </c>
+      <c r="C33">
+        <v>20200322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>20200411</v>
+      </c>
+      <c r="C34">
+        <v>20200331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>20200411</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>20200411</v>
+      </c>
+      <c r="C36">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>20200411</v>
+      </c>
+      <c r="C37">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>20200411</v>
+      </c>
+      <c r="C38">
+        <v>20200323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>20200411</v>
+      </c>
+      <c r="C39">
+        <v>20200402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>20200411</v>
+      </c>
+      <c r="C40">
+        <v>20200315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41">
+        <v>20200411</v>
+      </c>
+      <c r="C41">
+        <v>20200328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>20200411</v>
+      </c>
+      <c r="C42">
+        <v>20200408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>20200411</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>20200411</v>
+      </c>
+      <c r="C44">
+        <v>20200401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>20200411</v>
+      </c>
+      <c r="C45">
+        <v>20200402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>20200411</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>20200411</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>20200411</v>
+      </c>
+      <c r="C48">
+        <v>20200326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>20200411</v>
+      </c>
+      <c r="C49">
+        <v>20200330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>20200411</v>
+      </c>
+      <c r="C50">
+        <v>20200323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51">
+        <v>20200411</v>
+      </c>
+      <c r="C51">
+        <v>20200325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>20200411</v>
+      </c>
+      <c r="C52">
+        <v>20200325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <v>20200411</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753CD542-6EB0-C34A-836C-9C5519CB0103}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:BB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C2">
+        <v>20200405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>20200425</v>
+      </c>
+      <c r="C3">
+        <v>20200329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C4">
+        <v>20200401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
+        <v>20200502</v>
+      </c>
+      <c r="C6">
+        <v>20200319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C7">
+        <v>20200326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C8">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5">
+        <v>20200502</v>
+      </c>
+      <c r="C9">
+        <v>20200401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C10">
+        <v>20200403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20200502</v>
+      </c>
+      <c r="C11">
+        <v>20200404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C12">
+        <v>20200325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5">
+        <v>20200502</v>
+      </c>
+      <c r="C13">
+        <v>20200325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C14">
+        <v>20200322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C15">
+        <v>20200325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5">
+        <v>20200502</v>
+      </c>
+      <c r="C17">
+        <v>20200330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5">
+        <v>20200425</v>
+      </c>
+      <c r="C18">
+        <v>20200327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C19">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C20">
+        <v>20200402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C21">
+        <v>20200331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C22">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C23">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C24">
+        <v>20200328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C25">
+        <v>20200404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C26">
+        <v>20200406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="5">
+        <v>20200425</v>
+      </c>
+      <c r="C27">
+        <v>20200328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="5">
+        <v>20200425</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C29">
+        <v>20200401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C30">
+        <v>20200328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C31">
+        <v>20200322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C32">
+        <v>20200323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C33">
+        <v>20200322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C34">
+        <v>20200331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="5">
+        <v>20200425</v>
+      </c>
+      <c r="C36">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C37">
+        <v>20200324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C38">
+        <v>20200323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="5">
+        <v>20200502</v>
+      </c>
+      <c r="C39">
+        <v>20200402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C40">
+        <v>20200315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="5">
+        <v>20200502</v>
+      </c>
+      <c r="C41">
+        <v>20200328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C42">
+        <v>20200408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C44">
+        <v>20200401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C45">
+        <v>20200402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="5">
+        <v>20200425</v>
+      </c>
+      <c r="C47">
+        <v>20200326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C48">
+        <v>20200330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C50">
+        <v>20200323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="5">
+        <v>20200425</v>
+      </c>
+      <c r="C51">
+        <v>20200325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="5">
+        <v>20200425</v>
+      </c>
+      <c r="C52">
+        <v>20200325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="5">
+        <v>20200509</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5">
+        <v>20200516</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED49763D-476B-9E4F-B972-18DC70DDC881}">
-  <dimension ref="A1:AX3"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -4835,459 +9130,553 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>14.5</v>
       </c>
       <c r="C2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>17.8</v>
-      </c>
-      <c r="D2">
-        <v>15.4</v>
-      </c>
-      <c r="E2">
-        <v>15.3</v>
-      </c>
-      <c r="F2">
-        <v>15.6</v>
-      </c>
-      <c r="G2">
-        <v>14.1</v>
-      </c>
-      <c r="H2">
-        <v>18.510000000000002</v>
-      </c>
-      <c r="I2">
-        <v>16.8</v>
-      </c>
-      <c r="J2">
-        <v>15.5</v>
-      </c>
-      <c r="K2">
-        <v>14.9</v>
-      </c>
-      <c r="L2">
-        <v>17.8</v>
-      </c>
-      <c r="M2">
-        <v>14</v>
-      </c>
-      <c r="N2">
-        <v>15.6</v>
-      </c>
-      <c r="O2">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>14.2</v>
-      </c>
-      <c r="Q2">
-        <v>14.7</v>
-      </c>
-      <c r="R2">
-        <v>16.3</v>
-      </c>
-      <c r="S2">
-        <v>18</v>
-      </c>
-      <c r="T2">
-        <v>15.7</v>
-      </c>
-      <c r="U2">
-        <v>13.9</v>
-      </c>
-      <c r="V2">
-        <v>15.1</v>
-      </c>
-      <c r="W2">
-        <v>21.77</v>
-      </c>
-      <c r="X2">
-        <v>15.7</v>
-      </c>
-      <c r="Y2">
-        <v>15</v>
-      </c>
-      <c r="Z2">
-        <v>17.5</v>
-      </c>
-      <c r="AA2">
-        <v>16.3</v>
-      </c>
-      <c r="AB2">
-        <v>15.1</v>
-      </c>
-      <c r="AC2">
-        <v>19.7</v>
-      </c>
-      <c r="AD2">
-        <v>15</v>
-      </c>
-      <c r="AE2">
-        <v>15.6</v>
-      </c>
-      <c r="AF2">
-        <v>16.2</v>
-      </c>
-      <c r="AG2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AH2">
-        <v>15.5</v>
-      </c>
-      <c r="AI2">
-        <v>15.6</v>
-      </c>
-      <c r="AJ2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AK2">
-        <v>14.7</v>
-      </c>
-      <c r="AL2">
-        <v>15.5</v>
-      </c>
-      <c r="AM2">
-        <v>18.48</v>
-      </c>
-      <c r="AN2">
-        <v>15</v>
-      </c>
-      <c r="AO2">
-        <v>15.8</v>
-      </c>
-      <c r="AP2">
-        <v>15.8</v>
-      </c>
-      <c r="AQ2">
-        <v>15.2</v>
-      </c>
-      <c r="AR2">
-        <v>14.8</v>
-      </c>
-      <c r="AS2">
-        <v>21.2</v>
-      </c>
-      <c r="AT2">
-        <v>14</v>
-      </c>
-      <c r="AU2">
-        <v>15.97</v>
-      </c>
-      <c r="AV2">
-        <v>16.3</v>
-      </c>
-      <c r="AW2">
-        <v>15.6</v>
-      </c>
-      <c r="AX2">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3">
-        <v>0.65</v>
       </c>
       <c r="C3">
         <v>2.69</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>15.4</v>
+      </c>
+      <c r="C4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>15.3</v>
+      </c>
+      <c r="C5">
         <v>0.92</v>
       </c>
-      <c r="F3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>15.6</v>
+      </c>
+      <c r="C6">
         <v>1.95</v>
       </c>
-      <c r="G3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>14.1</v>
+      </c>
+      <c r="C7">
         <v>0.72</v>
       </c>
-      <c r="H3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="C8">
         <v>2.38</v>
       </c>
-      <c r="I3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>16.8</v>
+      </c>
+      <c r="C9">
         <v>1.19</v>
       </c>
-      <c r="J3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>15.5</v>
+      </c>
+      <c r="C10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>14.9</v>
+      </c>
+      <c r="C11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>17.8</v>
+      </c>
+      <c r="C12">
         <v>0.93</v>
       </c>
-      <c r="M3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
         <v>1.08</v>
       </c>
-      <c r="N3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>15.6</v>
+      </c>
+      <c r="C14">
         <v>2.12</v>
       </c>
-      <c r="O3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
         <v>0.65</v>
       </c>
-      <c r="P3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>14.2</v>
+      </c>
+      <c r="C16">
         <v>1.73</v>
       </c>
-      <c r="Q3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>14.7</v>
+      </c>
+      <c r="C17">
         <v>0.72</v>
       </c>
-      <c r="R3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>16.3</v>
+      </c>
+      <c r="C18">
         <v>1.06</v>
       </c>
-      <c r="S3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>0.68</v>
       </c>
-      <c r="T3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>15.7</v>
+      </c>
+      <c r="C20">
         <v>1.29</v>
       </c>
-      <c r="U3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>13.9</v>
+      </c>
+      <c r="C21">
         <v>1.04</v>
       </c>
-      <c r="V3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>15.1</v>
+      </c>
+      <c r="C22">
         <v>2.0499999999999998</v>
       </c>
-      <c r="W3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>21.77</v>
+      </c>
+      <c r="C23">
         <v>1.75</v>
       </c>
-      <c r="X3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>15.7</v>
+      </c>
+      <c r="C24">
         <v>0.78</v>
       </c>
-      <c r="Y3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
         <v>2.12</v>
       </c>
-      <c r="Z3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>17.5</v>
+      </c>
+      <c r="C26">
         <v>0.6</v>
       </c>
-      <c r="AA3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>16.3</v>
+      </c>
+      <c r="C27">
         <v>0.78</v>
       </c>
-      <c r="AB3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>15.1</v>
+      </c>
+      <c r="C28">
         <v>0.5</v>
       </c>
-      <c r="AC3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>19.7</v>
+      </c>
+      <c r="C29">
         <v>1.3</v>
       </c>
-      <c r="AD3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AE3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>15.6</v>
+      </c>
+      <c r="C31">
         <v>2.6</v>
       </c>
-      <c r="AF3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>16.2</v>
+      </c>
+      <c r="C32">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AG3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C33">
         <v>1.69</v>
       </c>
-      <c r="AH3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>15.5</v>
+      </c>
+      <c r="C34">
         <v>0.36</v>
       </c>
-      <c r="AI3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>15.6</v>
+      </c>
+      <c r="C35">
         <v>1.5</v>
       </c>
-      <c r="AJ3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C36">
         <v>1.23</v>
       </c>
-      <c r="AK3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>14.7</v>
+      </c>
+      <c r="C37">
         <v>1.02</v>
       </c>
-      <c r="AL3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>15.5</v>
+      </c>
+      <c r="C38">
         <v>1.52</v>
       </c>
-      <c r="AM3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>18.48</v>
+      </c>
+      <c r="C39">
         <v>2.21</v>
       </c>
-      <c r="AN3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
         <v>0.72</v>
       </c>
-      <c r="AO3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>15.8</v>
+      </c>
+      <c r="C41">
         <v>0.64</v>
       </c>
-      <c r="AP3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>15.8</v>
+      </c>
+      <c r="C42">
         <v>0.53</v>
       </c>
-      <c r="AQ3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
+        <v>15.2</v>
+      </c>
+      <c r="C43">
         <v>1.02</v>
       </c>
-      <c r="AR3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>14.8</v>
+      </c>
+      <c r="C44">
         <v>0.7</v>
       </c>
-      <c r="AS3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45">
+        <v>21.2</v>
+      </c>
+      <c r="C45">
         <v>1.77</v>
       </c>
-      <c r="AT3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46">
         <v>0.49</v>
       </c>
-      <c r="AU3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>15.97</v>
+      </c>
+      <c r="C47">
         <v>1.67</v>
       </c>
-      <c r="AV3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>16.3</v>
+      </c>
+      <c r="C48">
         <v>2.11</v>
       </c>
-      <c r="AW3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49">
+        <v>15.6</v>
+      </c>
+      <c r="C49">
         <v>1.41</v>
       </c>
-      <c r="AX3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>16.3</v>
+      </c>
+      <c r="C50">
         <v>1.19</v>
       </c>
     </row>
@@ -5296,12 +9685,672 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A7DA8D-46C4-FD45-8E25-D98271EFF255}">
-  <dimension ref="A1:AY2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C5D038-C71E-E140-9770-EAEFD1C87441}">
+  <dimension ref="A1:BB54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <v>11.24</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>16.88</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10.24</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.99</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
+        <v>27.75</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5">
+        <v>9.82</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5">
+        <v>11.78</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>25.04</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20.18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
+        <v>23.42</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5">
+        <v>12.78</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5">
+        <v>12.38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5">
+        <v>8.84</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5">
+        <v>13.77</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5">
+        <v>15.27</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5">
+        <v>16.52</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="5">
+        <v>23.14</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="5">
+        <v>18.77</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5">
+        <v>26.75</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="5">
+        <v>17.97</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="5">
+        <v>17.77</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="5">
+        <v>12.95</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="5">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="5">
+        <v>14.08</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="5">
+        <v>14.54</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="5">
+        <v>11.35</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="5">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="5">
+        <v>21.21</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="5">
+        <v>19.16</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="5">
+        <v>12.87</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6.03</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="5">
+        <v>10.47</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="5">
+        <v>10.57</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="5">
+        <v>25.2</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="5">
+        <v>10.79</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="5">
+        <v>10.08</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="5">
+        <v>31.2</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="5">
+        <v>21.95</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="5">
+        <v>11.25</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="5">
+        <v>6.64</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5">
+        <v>11.88</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A7DA8D-46C4-FD45-8E25-D98271EFF255}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5309,436 +10358,428 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B6">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B7">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B8">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B10">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="B28">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="B29">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="B30">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="B31">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="B35">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
         <v>66</v>
       </c>
-      <c r="AF1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT1" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="B49">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="B50">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="B51">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>62</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="B52">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>63</v>
       </c>
-      <c r="AY1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>57.2</v>
-      </c>
-      <c r="B2">
-        <v>63.4</v>
-      </c>
-      <c r="C2">
-        <v>61.8</v>
-      </c>
-      <c r="D2">
-        <v>59</v>
-      </c>
-      <c r="E2">
-        <v>61.8</v>
-      </c>
-      <c r="F2">
-        <v>68.3</v>
-      </c>
-      <c r="G2">
-        <v>66.8</v>
-      </c>
-      <c r="H2">
-        <v>61</v>
-      </c>
-      <c r="I2">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="J2">
-        <v>58.8</v>
-      </c>
-      <c r="K2">
-        <v>62.1</v>
-      </c>
-      <c r="L2">
-        <v>61.4</v>
-      </c>
-      <c r="M2">
-        <v>64.2</v>
-      </c>
-      <c r="N2">
-        <v>63.4</v>
-      </c>
-      <c r="O2">
-        <v>62.2</v>
-      </c>
-      <c r="P2">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="Q2">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="R2">
-        <v>58.6</v>
-      </c>
-      <c r="S2">
-        <v>60.2</v>
-      </c>
-      <c r="T2">
-        <v>62.4</v>
-      </c>
-      <c r="U2">
-        <v>68.8</v>
-      </c>
-      <c r="V2">
-        <v>66.2</v>
-      </c>
-      <c r="W2">
-        <v>61.3</v>
-      </c>
-      <c r="X2">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="Y2">
-        <v>55.6</v>
-      </c>
-      <c r="Z2">
-        <v>65</v>
-      </c>
-      <c r="AA2">
-        <v>62.8</v>
-      </c>
-      <c r="AB2">
-        <v>71.2</v>
-      </c>
-      <c r="AC2">
-        <v>63.6</v>
-      </c>
-      <c r="AD2">
-        <v>68.2</v>
-      </c>
-      <c r="AE2">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="AF2">
-        <v>59.1</v>
-      </c>
-      <c r="AG2">
-        <v>60.3</v>
-      </c>
-      <c r="AH2">
-        <v>59.7</v>
-      </c>
-      <c r="AI2">
-        <v>69.2</v>
-      </c>
-      <c r="AJ2">
-        <v>61.9</v>
-      </c>
-      <c r="AK2">
-        <v>60.5</v>
-      </c>
-      <c r="AL2">
-        <v>61.4</v>
-      </c>
-      <c r="AM2">
-        <v>63.6</v>
-      </c>
-      <c r="AN2">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="AO2">
-        <v>58.4</v>
-      </c>
-      <c r="AP2">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="AQ2">
-        <v>62</v>
-      </c>
-      <c r="AR2">
-        <v>63.2</v>
-      </c>
-      <c r="AS2">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="AT2">
-        <v>66</v>
-      </c>
-      <c r="AU2">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="AV2">
-        <v>64</v>
-      </c>
-      <c r="AW2">
-        <v>56.7</v>
-      </c>
-      <c r="AX2">
-        <v>66.8</v>
-      </c>
-      <c r="AY2">
+      <c r="B53">
         <v>65.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355BA315-07C5-1346-8104-7B239232D5F2}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>105.8</v>
-      </c>
-      <c r="B2">
-        <v>43.61</v>
-      </c>
-      <c r="C2">
-        <v>43.61</v>
-      </c>
-      <c r="D2">
-        <v>43.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96071F37-3BD4-F747-9362-8F98144F29F6}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/app/COVID19master/data/RL_input.xlsx
+++ b/app/COVID19master/data/RL_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19/Web/pre_run/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatapudi\Desktop\COVID_sim_UMASS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27572CD8-66B8-E344-8A64-1241A3125630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4EF7EB-D75A-4DB3-A006-A9B77BE1A209}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
   </bookViews>
   <sheets>
     <sheet name="VSL" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="others" sheetId="7" r:id="rId10"/>
     <sheet name="Source" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="97">
   <si>
     <t>0</t>
   </si>
@@ -333,12 +330,15 @@
   <si>
     <t>unit cost of universal testing</t>
   </si>
+  <si>
+    <t>UMASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -733,9 +733,9 @@
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -746,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +757,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,7 +768,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -779,7 +779,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,7 +790,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,7 +812,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,7 +823,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -834,7 +834,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,12 +856,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -875,7 +875,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>105.8</v>
       </c>
@@ -902,9 +902,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>72</v>
       </c>
@@ -912,7 +912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>74</v>
       </c>
@@ -920,7 +920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
@@ -928,7 +928,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -936,7 +936,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
@@ -944,7 +944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -952,7 +952,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -960,7 +960,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
@@ -977,13 +977,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAA7260-4112-4A9A-AF13-FA7948AFBE54}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -991,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1818,12 +1818,12 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53">
       <c r="A2">
         <v>20200104</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53">
       <c r="A3">
         <v>20200111</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53">
       <c r="A4">
         <v>20200118</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53">
       <c r="A5">
         <v>20200125</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53">
       <c r="A6">
         <v>20200201</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53">
       <c r="A7">
         <v>20200208</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53">
       <c r="A8">
         <v>20200215</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53">
       <c r="A9">
         <v>20200222</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53">
       <c r="A10">
         <v>20200229</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53">
       <c r="A11">
         <v>20200307</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53">
       <c r="A12">
         <v>20200314</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53">
       <c r="A13">
         <v>20200321</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53">
       <c r="A14">
         <v>20200328</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53">
       <c r="A15">
         <v>20200404</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53">
       <c r="A16">
         <v>20200411</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="17" spans="40:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="40:40">
       <c r="AN17" s="3"/>
     </row>
   </sheetData>
@@ -4409,15 +4409,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D6D6EF-5945-D14C-97F6-D84B44F1D4A2}">
-  <dimension ref="A1:BB23"/>
+  <dimension ref="A1:BC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B24" sqref="B24:BC24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -4580,8 +4580,11 @@
       <c r="BB1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55">
       <c r="A2">
         <v>20200104</v>
       </c>
@@ -4744,8 +4747,11 @@
       <c r="BB2" s="7">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC2" s="7">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55">
       <c r="A3">
         <v>20200111</v>
       </c>
@@ -4908,8 +4914,11 @@
       <c r="BB3" s="7">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC3" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55">
       <c r="A4">
         <v>20200118</v>
       </c>
@@ -5072,8 +5081,11 @@
       <c r="BB4" s="7">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC4" s="7">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55">
       <c r="A5">
         <v>20200125</v>
       </c>
@@ -5236,8 +5248,11 @@
       <c r="BB5" s="7">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC5" s="7">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55">
       <c r="A6">
         <v>20200201</v>
       </c>
@@ -5400,8 +5415,11 @@
       <c r="BB6" s="7">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC6" s="7">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55">
       <c r="A7">
         <v>20200208</v>
       </c>
@@ -5564,8 +5582,11 @@
       <c r="BB7" s="7">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC7" s="7">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55">
       <c r="A8">
         <v>20200215</v>
       </c>
@@ -5728,8 +5749,11 @@
       <c r="BB8" s="7">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC8" s="7">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55">
       <c r="A9">
         <v>20200222</v>
       </c>
@@ -5892,8 +5916,11 @@
       <c r="BB9" s="7">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC9" s="7">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55">
       <c r="A10">
         <v>20200229</v>
       </c>
@@ -6056,8 +6083,11 @@
       <c r="BB10" s="7">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC10" s="7">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55">
       <c r="A11">
         <v>20200307</v>
       </c>
@@ -6220,8 +6250,11 @@
       <c r="BB11" s="7">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC11" s="7">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55">
       <c r="A12">
         <v>20200314</v>
       </c>
@@ -6384,8 +6417,11 @@
       <c r="BB12" s="7">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC12" s="7">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55">
       <c r="A13">
         <v>20200321</v>
       </c>
@@ -6548,8 +6584,11 @@
       <c r="BB13" s="7">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC13" s="7">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55">
       <c r="A14">
         <v>20200328</v>
       </c>
@@ -6712,8 +6751,11 @@
       <c r="BB14" s="7">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC14" s="7">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55">
       <c r="A15">
         <v>20200404</v>
       </c>
@@ -6876,8 +6918,11 @@
       <c r="BB15" s="7">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC15" s="7">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55">
       <c r="A16">
         <v>20200411</v>
       </c>
@@ -7040,8 +7085,11 @@
       <c r="BB16" s="7">
         <v>7.29</v>
       </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC16" s="7">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55">
       <c r="A17">
         <v>20200418</v>
       </c>
@@ -7204,8 +7252,11 @@
       <c r="BB17" s="7">
         <v>8.19</v>
       </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC17" s="7">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55">
       <c r="A18">
         <v>20200425</v>
       </c>
@@ -7368,8 +7419,11 @@
       <c r="BB18" s="7">
         <v>9.07</v>
       </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC18" s="7">
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55">
       <c r="A19">
         <v>20200502</v>
       </c>
@@ -7532,8 +7586,11 @@
       <c r="BB19" s="7">
         <v>10.119999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC19" s="7">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55">
       <c r="A20">
         <v>20200509</v>
       </c>
@@ -7696,8 +7753,11 @@
       <c r="BB20" s="7">
         <v>11.27</v>
       </c>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC20" s="7">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55">
       <c r="A21">
         <v>20200516</v>
       </c>
@@ -7860,13 +7920,510 @@
       <c r="BB21" s="7">
         <v>11.88</v>
       </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="AN23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="BA23" s="5"/>
+      <c r="BC21" s="7">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55">
+      <c r="A22">
+        <v>20200609</v>
+      </c>
+      <c r="B22" s="7">
+        <v>10.55</v>
+      </c>
+      <c r="C22" s="7">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10.23</v>
+      </c>
+      <c r="E22" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="F22" s="7">
+        <v>20.57</v>
+      </c>
+      <c r="G22" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="H22" s="7">
+        <v>17.97</v>
+      </c>
+      <c r="I22" s="7">
+        <v>11.44</v>
+      </c>
+      <c r="J22" s="7">
+        <v>25.04</v>
+      </c>
+      <c r="K22" s="7">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="L22" s="7">
+        <v>23.42</v>
+      </c>
+      <c r="M22" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N22" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="O22" s="7">
+        <v>8.89</v>
+      </c>
+      <c r="P22" s="7">
+        <v>12.06</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>7.95</v>
+      </c>
+      <c r="R22" s="7">
+        <v>13.04</v>
+      </c>
+      <c r="S22" s="8">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="T22" s="7">
+        <v>15.27</v>
+      </c>
+      <c r="U22" s="8">
+        <v>9.91</v>
+      </c>
+      <c r="V22" s="7">
+        <v>16.52</v>
+      </c>
+      <c r="W22" s="7">
+        <v>23.09</v>
+      </c>
+      <c r="X22" s="7">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>14.93</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>17.11</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>6.53</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>26.75</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>17.61</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>14.95</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>12.95</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="AH22" s="7">
+        <v>13.76</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>7.85</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>13.18</v>
+      </c>
+      <c r="AK22" s="7">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="AL22" s="7">
+        <v>15.16</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="AO22" s="7">
+        <v>18.84</v>
+      </c>
+      <c r="AP22" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="AQ22" s="7">
+        <v>6.03</v>
+      </c>
+      <c r="AR22" s="7">
+        <v>10.15</v>
+      </c>
+      <c r="AS22" s="7">
+        <v>10.57</v>
+      </c>
+      <c r="AT22" s="7">
+        <v>5.85</v>
+      </c>
+      <c r="AU22" s="7">
+        <v>18.16</v>
+      </c>
+      <c r="AV22" s="7">
+        <v>10.79</v>
+      </c>
+      <c r="AW22" s="7">
+        <v>10.08</v>
+      </c>
+      <c r="AX22" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="AY22" s="7">
+        <v>14.79</v>
+      </c>
+      <c r="AZ22" s="7">
+        <v>10.81</v>
+      </c>
+      <c r="BA22" s="7">
+        <v>6.42</v>
+      </c>
+      <c r="BB22" s="7">
+        <v>11.88</v>
+      </c>
+      <c r="BC22" s="7">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55">
+      <c r="A23">
+        <v>20200608</v>
+      </c>
+      <c r="B23" s="7">
+        <v>10.55</v>
+      </c>
+      <c r="C23" s="7">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="D23" s="7">
+        <v>10.23</v>
+      </c>
+      <c r="E23" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="F23" s="7">
+        <v>20.57</v>
+      </c>
+      <c r="G23" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="H23" s="7">
+        <v>17.97</v>
+      </c>
+      <c r="I23" s="7">
+        <v>11.44</v>
+      </c>
+      <c r="J23" s="7">
+        <v>25.04</v>
+      </c>
+      <c r="K23" s="7">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="L23" s="7">
+        <v>23.42</v>
+      </c>
+      <c r="M23" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N23" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="O23" s="7">
+        <v>8.89</v>
+      </c>
+      <c r="P23" s="7">
+        <v>12.06</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>7.95</v>
+      </c>
+      <c r="R23" s="7">
+        <v>13.04</v>
+      </c>
+      <c r="S23" s="8">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="T23" s="7">
+        <v>15.27</v>
+      </c>
+      <c r="U23" s="8">
+        <v>9.91</v>
+      </c>
+      <c r="V23" s="7">
+        <v>16.52</v>
+      </c>
+      <c r="W23" s="7">
+        <v>23.09</v>
+      </c>
+      <c r="X23" s="7">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>14.93</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>17.11</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>6.53</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>26.75</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>17.61</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>14.95</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>12.95</v>
+      </c>
+      <c r="AG23" s="7">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="AH23" s="7">
+        <v>13.76</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>7.85</v>
+      </c>
+      <c r="AJ23" s="7">
+        <v>13.18</v>
+      </c>
+      <c r="AK23" s="7">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="AL23" s="7">
+        <v>15.16</v>
+      </c>
+      <c r="AM23" s="7">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="AN23" s="7">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="AO23" s="7">
+        <v>18.84</v>
+      </c>
+      <c r="AP23" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="AQ23" s="7">
+        <v>6.03</v>
+      </c>
+      <c r="AR23" s="7">
+        <v>10.15</v>
+      </c>
+      <c r="AS23" s="7">
+        <v>10.57</v>
+      </c>
+      <c r="AT23" s="7">
+        <v>5.85</v>
+      </c>
+      <c r="AU23" s="7">
+        <v>18.16</v>
+      </c>
+      <c r="AV23" s="7">
+        <v>10.79</v>
+      </c>
+      <c r="AW23" s="7">
+        <v>10.08</v>
+      </c>
+      <c r="AX23" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="AY23" s="7">
+        <v>14.79</v>
+      </c>
+      <c r="AZ23" s="7">
+        <v>10.81</v>
+      </c>
+      <c r="BA23" s="7">
+        <v>6.42</v>
+      </c>
+      <c r="BB23" s="7">
+        <v>11.88</v>
+      </c>
+      <c r="BC23" s="7">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55">
+      <c r="A24">
+        <v>20200610</v>
+      </c>
+      <c r="B24" s="7">
+        <v>10.55</v>
+      </c>
+      <c r="C24" s="7">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10.23</v>
+      </c>
+      <c r="E24" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="F24" s="7">
+        <v>20.57</v>
+      </c>
+      <c r="G24" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="H24" s="7">
+        <v>17.97</v>
+      </c>
+      <c r="I24" s="7">
+        <v>11.44</v>
+      </c>
+      <c r="J24" s="7">
+        <v>25.04</v>
+      </c>
+      <c r="K24" s="7">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="L24" s="7">
+        <v>23.42</v>
+      </c>
+      <c r="M24" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N24" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="O24" s="7">
+        <v>8.89</v>
+      </c>
+      <c r="P24" s="7">
+        <v>12.06</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>7.95</v>
+      </c>
+      <c r="R24" s="7">
+        <v>13.04</v>
+      </c>
+      <c r="S24" s="8">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="T24" s="7">
+        <v>15.27</v>
+      </c>
+      <c r="U24" s="8">
+        <v>9.91</v>
+      </c>
+      <c r="V24" s="7">
+        <v>16.52</v>
+      </c>
+      <c r="W24" s="7">
+        <v>23.09</v>
+      </c>
+      <c r="X24" s="7">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>14.93</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>17.11</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>6.53</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>26.75</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>17.61</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>14.95</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>12.95</v>
+      </c>
+      <c r="AG24" s="7">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>13.76</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>7.85</v>
+      </c>
+      <c r="AJ24" s="7">
+        <v>13.18</v>
+      </c>
+      <c r="AK24" s="7">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="AL24" s="7">
+        <v>15.16</v>
+      </c>
+      <c r="AM24" s="7">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="AN24" s="7">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="AO24" s="7">
+        <v>18.84</v>
+      </c>
+      <c r="AP24" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="AQ24" s="7">
+        <v>6.03</v>
+      </c>
+      <c r="AR24" s="7">
+        <v>10.15</v>
+      </c>
+      <c r="AS24" s="7">
+        <v>10.57</v>
+      </c>
+      <c r="AT24" s="7">
+        <v>5.85</v>
+      </c>
+      <c r="AU24" s="7">
+        <v>18.16</v>
+      </c>
+      <c r="AV24" s="7">
+        <v>10.79</v>
+      </c>
+      <c r="AW24" s="7">
+        <v>10.08</v>
+      </c>
+      <c r="AX24" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="AY24" s="7">
+        <v>14.79</v>
+      </c>
+      <c r="AZ24" s="7">
+        <v>10.81</v>
+      </c>
+      <c r="BA24" s="7">
+        <v>6.42</v>
+      </c>
+      <c r="BB24" s="7">
+        <v>11.88</v>
+      </c>
+      <c r="BC24" s="7">
+        <v>16.52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7875,13 +8432,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8A6DB2-47D9-364B-886F-A684F3E3E595}">
-  <dimension ref="A1:AY53"/>
+  <dimension ref="A1:AY54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -7892,7 +8451,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7903,7 +8462,7 @@
         <v>20200405</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -7914,7 +8473,7 @@
         <v>20200329</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -7925,7 +8484,7 @@
         <v>20200401</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -7978,7 +8537,7 @@
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -7989,7 +8548,7 @@
         <v>20200319</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -8000,7 +8559,7 @@
         <v>20200326</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -8011,7 +8570,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -8022,7 +8581,7 @@
         <v>20200401</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -8033,7 +8592,7 @@
         <v>20200403</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -8044,7 +8603,7 @@
         <v>20200404</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -8055,7 +8614,7 @@
         <v>20200325</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -8066,7 +8625,7 @@
         <v>20200325</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -8077,7 +8636,7 @@
         <v>20200322</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -8088,7 +8647,7 @@
         <v>20200325</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -8099,7 +8658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -8110,7 +8669,7 @@
         <v>20200330</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -8121,7 +8680,7 @@
         <v>20200327</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -8132,7 +8691,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -8143,7 +8702,7 @@
         <v>20200402</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -8154,7 +8713,7 @@
         <v>20200331</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -8165,7 +8724,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -8176,7 +8735,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -8187,7 +8746,7 @@
         <v>20200328</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -8198,7 +8757,7 @@
         <v>20200404</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -8209,7 +8768,7 @@
         <v>20200406</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -8220,7 +8779,7 @@
         <v>20200328</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -8231,7 +8790,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -8242,7 +8801,7 @@
         <v>20200401</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -8253,7 +8812,7 @@
         <v>20200328</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -8264,7 +8823,7 @@
         <v>20200322</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -8275,7 +8834,7 @@
         <v>20200323</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -8286,7 +8845,7 @@
         <v>20200322</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -8297,7 +8856,7 @@
         <v>20200331</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -8308,7 +8867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -8319,7 +8878,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -8330,7 +8889,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -8341,7 +8900,7 @@
         <v>20200323</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -8352,7 +8911,7 @@
         <v>20200402</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -8363,7 +8922,7 @@
         <v>20200315</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -8374,7 +8933,7 @@
         <v>20200328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -8385,7 +8944,7 @@
         <v>20200408</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -8396,7 +8955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -8407,7 +8966,7 @@
         <v>20200401</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -8418,7 +8977,7 @@
         <v>20200402</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -8429,7 +8988,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -8440,7 +8999,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -8451,7 +9010,7 @@
         <v>20200326</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -8462,7 +9021,7 @@
         <v>20200330</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -8473,7 +9032,7 @@
         <v>20200323</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -8484,7 +9043,7 @@
         <v>20200325</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -8495,7 +9054,7 @@
         <v>20200325</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -8504,6 +9063,17 @@
       </c>
       <c r="C53" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="5">
+        <v>20200716</v>
+      </c>
+      <c r="C54" s="5">
+        <v>20200616</v>
       </c>
     </row>
   </sheetData>
@@ -8513,15 +9083,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753CD542-6EB0-C34A-836C-9C5519CB0103}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:BB1"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -8532,7 +9102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -8543,7 +9113,7 @@
         <v>20200405</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -8554,7 +9124,7 @@
         <v>20200329</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -8565,7 +9135,7 @@
         <v>20200401</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -8576,7 +9146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -8587,7 +9157,7 @@
         <v>20200319</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -8598,7 +9168,7 @@
         <v>20200326</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -8609,7 +9179,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -8620,7 +9190,7 @@
         <v>20200401</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -8631,7 +9201,7 @@
         <v>20200403</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -8642,7 +9212,7 @@
         <v>20200404</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -8653,7 +9223,7 @@
         <v>20200325</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -8664,7 +9234,7 @@
         <v>20200325</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -8675,7 +9245,7 @@
         <v>20200322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -8686,7 +9256,7 @@
         <v>20200325</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -8697,7 +9267,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -8708,7 +9278,7 @@
         <v>20200330</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -8719,7 +9289,7 @@
         <v>20200327</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -8730,7 +9300,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -8741,7 +9311,7 @@
         <v>20200402</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -8752,7 +9322,7 @@
         <v>20200331</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -8763,7 +9333,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -8774,7 +9344,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -8785,7 +9355,7 @@
         <v>20200328</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -8796,7 +9366,7 @@
         <v>20200404</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -8807,7 +9377,7 @@
         <v>20200406</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -8818,7 +9388,7 @@
         <v>20200328</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
@@ -8829,7 +9399,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -8840,7 +9410,7 @@
         <v>20200401</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -8851,7 +9421,7 @@
         <v>20200328</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -8862,7 +9432,7 @@
         <v>20200322</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -8873,7 +9443,7 @@
         <v>20200323</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -8884,7 +9454,7 @@
         <v>20200322</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
@@ -8895,7 +9465,7 @@
         <v>20200331</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
@@ -8906,7 +9476,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
         <v>49</v>
       </c>
@@ -8917,7 +9487,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>50</v>
       </c>
@@ -8928,7 +9498,7 @@
         <v>20200324</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
         <v>51</v>
       </c>
@@ -8939,7 +9509,7 @@
         <v>20200323</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
         <v>52</v>
       </c>
@@ -8950,7 +9520,7 @@
         <v>20200402</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
         <v>88</v>
       </c>
@@ -8961,7 +9531,7 @@
         <v>20200315</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
         <v>65</v>
       </c>
@@ -8972,7 +9542,7 @@
         <v>20200328</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
         <v>53</v>
       </c>
@@ -8983,7 +9553,7 @@
         <v>20200408</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
         <v>54</v>
       </c>
@@ -8994,7 +9564,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
         <v>55</v>
       </c>
@@ -9005,7 +9575,7 @@
         <v>20200401</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
         <v>56</v>
       </c>
@@ -9016,7 +9586,7 @@
         <v>20200402</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
@@ -9027,7 +9597,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
         <v>58</v>
       </c>
@@ -9038,7 +9608,7 @@
         <v>20200326</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
         <v>59</v>
       </c>
@@ -9049,7 +9619,7 @@
         <v>20200330</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
         <v>89</v>
       </c>
@@ -9060,7 +9630,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
@@ -9071,7 +9641,7 @@
         <v>20200323</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
         <v>61</v>
       </c>
@@ -9082,7 +9652,7 @@
         <v>20200325</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
         <v>62</v>
       </c>
@@ -9093,7 +9663,7 @@
         <v>20200325</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
         <v>63</v>
       </c>
@@ -9104,7 +9674,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
         <v>10</v>
       </c>
@@ -9113,6 +9683,17 @@
       </c>
       <c r="C54" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="5">
+        <v>20200616</v>
+      </c>
+      <c r="C55" s="5">
+        <v>20200616</v>
       </c>
     </row>
   </sheetData>
@@ -9128,9 +9709,9 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -9141,7 +9722,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -9152,7 +9733,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -9163,7 +9744,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -9174,7 +9755,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -9185,7 +9766,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -9196,7 +9777,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -9207,7 +9788,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -9218,7 +9799,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -9229,7 +9810,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -9240,7 +9821,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -9251,7 +9832,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -9262,7 +9843,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -9273,7 +9854,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -9284,7 +9865,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -9295,7 +9876,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -9306,7 +9887,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -9317,7 +9898,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -9328,7 +9909,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -9339,7 +9920,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -9350,7 +9931,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -9361,7 +9942,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -9372,7 +9953,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -9383,7 +9964,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -9394,7 +9975,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -9405,7 +9986,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -9416,7 +9997,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -9427,7 +10008,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -9438,7 +10019,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -9449,7 +10030,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -9460,7 +10041,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -9471,7 +10052,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -9482,7 +10063,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -9493,7 +10074,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -9504,7 +10085,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -9515,7 +10096,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -9526,7 +10107,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -9537,7 +10118,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -9548,7 +10129,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -9559,7 +10140,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -9570,7 +10151,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -9581,7 +10162,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -9592,7 +10173,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -9603,7 +10184,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -9614,7 +10195,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -9625,7 +10206,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -9636,7 +10217,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -9647,7 +10228,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -9658,7 +10239,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -9669,7 +10250,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -9687,15 +10268,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C5D038-C71E-E140-9770-EAEFD1C87441}">
-  <dimension ref="A1:BB54"/>
+  <dimension ref="A1:BB55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -9757,7 +10338,7 @@
       <c r="BA1" s="5"/>
       <c r="BB1" s="5"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -9768,7 +10349,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -9779,7 +10360,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -9790,7 +10371,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -9801,7 +10382,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -9812,7 +10393,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -9823,7 +10404,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -9834,7 +10415,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -9845,7 +10426,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -9856,7 +10437,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -9867,7 +10448,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -9878,7 +10459,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -9889,7 +10470,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -9900,7 +10481,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -9911,7 +10492,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -9922,7 +10503,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -9933,7 +10514,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -9944,7 +10525,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -9955,7 +10536,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -9966,7 +10547,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -9977,7 +10558,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -9988,7 +10569,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -9999,7 +10580,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -10010,7 +10591,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -10021,7 +10602,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -10032,7 +10613,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -10043,7 +10624,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
@@ -10054,7 +10635,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -10065,7 +10646,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -10076,7 +10657,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -10087,7 +10668,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -10098,7 +10679,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -10109,7 +10690,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
@@ -10120,7 +10701,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
@@ -10131,7 +10712,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
         <v>49</v>
       </c>
@@ -10142,7 +10723,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>50</v>
       </c>
@@ -10153,7 +10734,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
         <v>51</v>
       </c>
@@ -10164,7 +10745,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
         <v>52</v>
       </c>
@@ -10175,7 +10756,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
         <v>88</v>
       </c>
@@ -10186,7 +10767,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
         <v>65</v>
       </c>
@@ -10197,7 +10778,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
         <v>53</v>
       </c>
@@ -10208,7 +10789,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
         <v>54</v>
       </c>
@@ -10219,7 +10800,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
         <v>55</v>
       </c>
@@ -10230,7 +10811,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
         <v>56</v>
       </c>
@@ -10241,7 +10822,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
@@ -10252,7 +10833,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
         <v>58</v>
       </c>
@@ -10263,7 +10844,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
         <v>59</v>
       </c>
@@ -10274,7 +10855,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
         <v>89</v>
       </c>
@@ -10285,7 +10866,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
@@ -10296,7 +10877,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
         <v>61</v>
       </c>
@@ -10307,7 +10888,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
         <v>62</v>
       </c>
@@ -10318,7 +10899,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
         <v>63</v>
       </c>
@@ -10329,7 +10910,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
         <v>10</v>
       </c>
@@ -10338,6 +10919,17 @@
       </c>
       <c r="C54" s="5">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="5">
+        <v>16.52</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2.09</v>
       </c>
     </row>
   </sheetData>
@@ -10347,18 +10939,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A7DA8D-46C4-FD45-8E25-D98271EFF255}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -10366,7 +10958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -10374,7 +10966,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -10382,7 +10974,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -10390,7 +10982,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -10398,7 +10990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -10406,7 +10998,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -10414,7 +11006,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -10422,7 +11014,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -10430,7 +11022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -10438,7 +11030,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -10446,7 +11038,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -10454,7 +11046,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -10462,7 +11054,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -10470,7 +11062,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -10478,7 +11070,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -10486,7 +11078,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -10494,7 +11086,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -10502,7 +11094,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -10510,7 +11102,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -10518,7 +11110,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -10526,7 +11118,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -10534,7 +11126,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -10542,7 +11134,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -10550,7 +11142,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -10558,7 +11150,7 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -10566,7 +11158,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -10574,7 +11166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -10582,7 +11174,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -10590,7 +11182,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -10598,7 +11190,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -10606,7 +11198,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -10614,7 +11206,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -10622,7 +11214,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -10630,7 +11222,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -10638,7 +11230,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -10646,7 +11238,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -10654,7 +11246,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -10662,7 +11254,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -10670,7 +11262,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -10678,7 +11270,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -10686,7 +11278,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -10694,7 +11286,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -10702,7 +11294,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -10710,7 +11302,7 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -10718,7 +11310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -10726,7 +11318,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -10734,7 +11326,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -10742,7 +11334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -10750,7 +11342,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -10758,7 +11350,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -10766,7 +11358,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -10774,12 +11366,20 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
       <c r="B53">
         <v>65.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54">
+        <v>68.8</v>
       </c>
     </row>
   </sheetData>
